--- a/data/ExperimentsData.xlsx
+++ b/data/ExperimentsData.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="21520" windowHeight="14680" tabRatio="500"/>
+    <workbookView xWindow="3160" yWindow="240" windowWidth="18760" windowHeight="14580" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="130407" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>Freq</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -28,11 +30,29 @@
     <t>Time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Nodes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average Hop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average Hops</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="10"/>
@@ -265,25 +285,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="539548248"/>
-        <c:axId val="539867832"/>
+        <c:axId val="594566920"/>
+        <c:axId val="594505144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="539548248"/>
+        <c:axId val="594566920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="539867832"/>
+        <c:crossAx val="594505144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="539867832"/>
+        <c:axId val="594505144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -291,7 +311,311 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="539548248"/>
+        <c:crossAx val="594566920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Hop</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>600.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="595267352"/>
+        <c:axId val="595270520"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="595267352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="595270520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="595270520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="595267352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Hops</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>554.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5310.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="596349416"/>
+        <c:axId val="558058216"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="596349416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="558058216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="558058216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="596349416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -328,6 +652,76 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -667,7 +1061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -855,6 +1249,230 @@
       </c>
       <c r="B23">
         <v>3529</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView view="pageLayout" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>60</v>
+      </c>
+      <c r="B7">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>70</v>
+      </c>
+      <c r="B8">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>80</v>
+      </c>
+      <c r="B9">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>90</v>
+      </c>
+      <c r="B10">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>100</v>
+      </c>
+      <c r="B11">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>150</v>
+      </c>
+      <c r="B12">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>200</v>
+      </c>
+      <c r="B13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>300</v>
+      </c>
+      <c r="B14">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>400</v>
+      </c>
+      <c r="B15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>500</v>
+      </c>
+      <c r="B16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>600</v>
+      </c>
+      <c r="B17">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection sqref="A1:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>100</v>
+      </c>
+      <c r="B3">
+        <v>58.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>1000</v>
+      </c>
+      <c r="B4">
+        <v>554.29999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>10000</v>
+      </c>
+      <c r="B5">
+        <v>5310.4</v>
       </c>
     </row>
   </sheetData>
